--- a/Personal. Sueldos y personas.xlsx
+++ b/Personal. Sueldos y personas.xlsx
@@ -1,34 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ffa0bef86689d611/Escritorio/EDEM/PROYECTO 2 QL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Maria/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{3656EEB2-434A-45ED-A397-55DBB881D638}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9212E9FC-3D44-43D6-94ED-F03DFBEEDE3E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3959B2-17A6-EA48-8594-4D8FC77298CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30105" yWindow="1230" windowWidth="15765" windowHeight="11820" xr2:uid="{A583D204-05A2-4044-A2BD-4417A8574E97}"/>
+    <workbookView xWindow="3280" yWindow="640" windowWidth="24940" windowHeight="13000" activeTab="3" xr2:uid="{A583D204-05A2-4044-A2BD-4417A8574E97}"/>
   </bookViews>
   <sheets>
     <sheet name="salarios equipo. esc. vcia mad" sheetId="1" r:id="rId1"/>
     <sheet name="candidatos" sheetId="3" r:id="rId2"/>
+    <sheet name="S.Modificados" sheetId="5" r:id="rId3"/>
+    <sheet name="Actividades" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -42,10 +35,19 @@
   <commentList>
     <comment ref="C8" authorId="0" shapeId="0" xr:uid="{C099D30C-1471-4E99-BEB4-06F5D71D4611}">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     no he localizado referencias en glassdoor</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -53,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="82">
   <si>
     <t>Programador</t>
   </si>
@@ -182,13 +184,130 @@
   </si>
   <si>
     <t>*Origen Información: Glassdoor. Medias por zonas Valencia y Madrid.</t>
+  </si>
+  <si>
+    <t>DÍAS</t>
+  </si>
+  <si>
+    <t>Amparo</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>Jordi</t>
+  </si>
+  <si>
+    <t>Juan Lu</t>
+  </si>
+  <si>
+    <t>María</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Búsqueda de Información sobre la Estructura </t>
+  </si>
+  <si>
+    <t>Costes MVP y Costes proyecto real / Repasar ejercicios Spark</t>
+  </si>
+  <si>
+    <t>Obtener Tweets / Repasar Ejercicios Spark</t>
+  </si>
+  <si>
+    <t>Crear la base de datos por ciudades / Repasar Ejercicios Spark</t>
+  </si>
+  <si>
+    <t>Diagrama de la estructura / Repasar Ejercicios Spark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planificación de actividades </t>
+  </si>
+  <si>
+    <t>Separar Tweets / Repasar Ejercicios Spark</t>
+  </si>
+  <si>
+    <t>Desarrollar Docker-Compose / Repasar Ejercicios Spark</t>
+  </si>
+  <si>
+    <t>Repasar Ejercicios Spark</t>
+  </si>
+  <si>
+    <t>Crear repositorio Github / Repasar Ejercicios Spark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nifi </t>
+  </si>
+  <si>
+    <t>Nifi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL Ciudades </t>
+  </si>
+  <si>
+    <t>SQL Ciudades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spark Características Personas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Python + Nifi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testeo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empresa </t>
+  </si>
+  <si>
+    <t>Vídeo</t>
+  </si>
+  <si>
+    <t>Presentación</t>
+  </si>
+  <si>
+    <t>ENTREGA DATA PROJECT 2</t>
+  </si>
+  <si>
+    <t>MVP + PF</t>
+  </si>
+  <si>
+    <t>Desarrollador Java + Spark</t>
+  </si>
+  <si>
+    <t>Arquitecto en Cloud</t>
+  </si>
+  <si>
+    <t>Data Analyst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deveops </t>
+  </si>
+  <si>
+    <t>Total Proyecto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salario Bruto Anual </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salario Bruto Mensual </t>
+  </si>
+  <si>
+    <t>Salario € / hora</t>
+  </si>
+  <si>
+    <t>Horas dedicadas al proyecto</t>
+  </si>
+  <si>
+    <t>Total Salario Bruto Mensual</t>
+  </si>
+  <si>
+    <t>Total Salario Bruto Anual</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,12 +337,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Segoe "/>
@@ -323,6 +436,120 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="3" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="3" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF172B4D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="3" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="3" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222B35"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -333,7 +560,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -350,87 +577,266 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="27" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -760,428 +1166,513 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388A549D-1207-4FC5-8626-83E4C16C7DDC}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="11"/>
   <cols>
-    <col min="1" max="1" width="26.21875" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.21875" style="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" style="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.44140625" style="34" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.77734375" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" style="34" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.77734375" style="34" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" style="34"/>
-    <col min="11" max="16384" width="11.5546875" style="35"/>
+    <col min="1" max="1" width="26.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="30" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="31" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="30" customWidth="1"/>
+    <col min="5" max="5" width="5.5" style="30" customWidth="1"/>
+    <col min="6" max="6" width="6.83203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.83203125" style="30" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="30"/>
+    <col min="11" max="16384" width="11.5" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="11.4">
+    <row r="1" spans="1:9" ht="13">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="11.4">
-      <c r="E2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-    </row>
-    <row r="3" spans="1:9" ht="11.4">
+    <row r="2" spans="1:9" ht="13">
+      <c r="E2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+    </row>
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="9" t="s">
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="B4" s="15" t="s">
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+    </row>
+    <row r="4" spans="1:9" ht="15">
+      <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="18"/>
+      <c r="F4" s="15"/>
       <c r="G4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="11.4">
+    <row r="5" spans="1:9" ht="13">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="3">
         <v>24082</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="16">
         <f>+C5/12</f>
         <v>2006.8333333333333</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="16">
         <f>+D5/160</f>
         <v>12.542708333333334</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="17" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="3">
         <v>25197</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="16">
         <f>+G5/12</f>
         <v>2099.75</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="16">
         <f>+H5/160</f>
         <v>13.1234375</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="11.4">
+    <row r="6" spans="1:9" ht="13">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="3">
         <v>24795</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="16">
         <f t="shared" ref="D6:D11" si="0">+C6/12</f>
         <v>2066.25</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="16">
         <f t="shared" ref="E6:E11" si="1">+D6/160</f>
         <v>12.9140625</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="18" t="s">
         <v>17</v>
       </c>
       <c r="G6" s="3">
         <v>24831</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="16">
         <f>+G6/12</f>
         <v>2069.25</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="16">
         <f t="shared" ref="I6:I11" si="2">+H6/160</f>
         <v>12.932812500000001</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="11.4">
+    <row r="7" spans="1:9" ht="13">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="3">
         <v>20105</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="16">
         <f t="shared" si="0"/>
         <v>1675.4166666666667</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="16">
         <f t="shared" si="1"/>
         <v>10.471354166666668</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="17" t="s">
         <v>18</v>
       </c>
       <c r="G7" s="3">
         <v>32291</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="16">
         <f>+G7/12</f>
         <v>2690.9166666666665</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="16">
         <f t="shared" si="2"/>
         <v>16.818229166666665</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="11.4">
+    <row r="8" spans="1:9" ht="13">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="4">
         <v>42000</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="16">
         <f t="shared" si="0"/>
         <v>3500</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="16">
         <f t="shared" si="1"/>
         <v>21.875</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="17" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="3">
         <v>49974</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="16">
         <f t="shared" ref="H8:H11" si="3">+G8/12</f>
         <v>4164.5</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="16">
         <f t="shared" si="2"/>
         <v>26.028124999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="11.4">
+    <row r="9" spans="1:9" ht="13">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="3">
         <v>42824</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="16">
         <f t="shared" si="0"/>
         <v>3568.6666666666665</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="16">
         <f t="shared" si="1"/>
         <v>22.304166666666667</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="17" t="s">
         <v>20</v>
       </c>
       <c r="G9" s="3">
         <v>47317</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="16">
         <f t="shared" si="3"/>
         <v>3943.0833333333335</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="16">
         <f t="shared" si="2"/>
         <v>24.644270833333334</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="11.4">
+    <row r="10" spans="1:9" ht="13">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="3">
         <v>21576</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="16">
         <f t="shared" si="0"/>
         <v>1798</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="16">
         <f t="shared" si="1"/>
         <v>11.237500000000001</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="17" t="s">
         <v>21</v>
       </c>
       <c r="G10" s="3">
         <v>28045</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="16">
         <f t="shared" si="3"/>
         <v>2337.0833333333335</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="16">
         <f t="shared" si="2"/>
         <v>14.606770833333334</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="11.4">
+    <row r="11" spans="1:9" ht="13">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="3">
         <v>35000</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="16">
         <f t="shared" si="0"/>
         <v>2916.6666666666665</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="16">
         <f t="shared" si="1"/>
         <v>18.229166666666664</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="17" t="s">
         <v>22</v>
       </c>
       <c r="G11" s="5">
         <v>35471</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="9">
         <f t="shared" si="3"/>
         <v>2955.9166666666665</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="9">
         <f t="shared" si="2"/>
         <v>18.474479166666665</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="8.4" customHeight="1">
-      <c r="B12" s="14"/>
+    <row r="12" spans="1:9" ht="8.5" customHeight="1">
+      <c r="B12" s="12"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="13"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="11"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-    </row>
-    <row r="13" spans="1:9" s="34" customFormat="1">
-      <c r="B13" s="12" t="s">
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+    </row>
+    <row r="13" spans="1:9" s="30" customFormat="1" ht="13">
+      <c r="B13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="9">
         <f>+SUM(C5:C11)</f>
         <v>210382</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="9">
         <f>+SUM(D5:D11)</f>
         <v>17531.833333333332</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="9">
         <f>+SUM(E5:E11)</f>
         <v>109.57395833333334</v>
       </c>
-      <c r="F13" s="13"/>
+      <c r="F13" s="11"/>
       <c r="G13" s="6">
         <f>+SUM(G5:G11)</f>
         <v>243126</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="9">
         <f t="shared" ref="H13:I13" si="4">+SUM(H5:H11)</f>
         <v>20260.5</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="9">
         <f t="shared" si="4"/>
         <v>126.628125</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="34" customFormat="1">
-      <c r="B14" s="12" t="s">
+    <row r="14" spans="1:9" s="30" customFormat="1" ht="13">
+      <c r="B14" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="9">
         <f>+C5+C9</f>
         <v>66906</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="9">
         <f t="shared" ref="D14:I14" si="5">+D5+D9</f>
         <v>5575.5</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="9">
         <f t="shared" si="5"/>
         <v>34.846874999999997</v>
       </c>
-      <c r="F14" s="13"/>
+      <c r="F14" s="11"/>
       <c r="G14" s="6">
         <f t="shared" si="5"/>
         <v>72514</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="9">
         <f t="shared" si="5"/>
         <v>6042.8333333333339</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="9">
         <f t="shared" si="5"/>
         <v>37.767708333333331</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="B15" s="14"/>
+    <row r="15" spans="1:9" ht="13">
+      <c r="B15" s="12"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="13"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="11"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="B16" s="14"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="1:9" ht="13">
+      <c r="B16" s="12"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="13"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="11"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="33" t="s">
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="37"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" s="37"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="B22" s="38"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="B23" s="38"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="B24" s="38"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="B25" s="38"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="B26" s="38"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="B27" s="38"/>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="B28" s="38"/>
+      <c r="B18" s="33"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="B19" s="33"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="51"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+    </row>
+    <row r="22" spans="1:7" ht="13">
+      <c r="A22" s="56"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="48"/>
+    </row>
+    <row r="23" spans="1:7" ht="13">
+      <c r="A23" s="59"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="48"/>
+    </row>
+    <row r="24" spans="1:7" ht="13">
+      <c r="A24" s="59"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="48"/>
+    </row>
+    <row r="25" spans="1:7" ht="13">
+      <c r="A25" s="59"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="48"/>
+    </row>
+    <row r="26" spans="1:7" ht="13">
+      <c r="A26" s="59"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="48"/>
+    </row>
+    <row r="27" spans="1:7" ht="13">
+      <c r="A27" s="59"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="48"/>
+    </row>
+    <row r="28" spans="1:7" ht="13">
+      <c r="A28" s="59"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="48"/>
+    </row>
+    <row r="29" spans="1:7" ht="13">
+      <c r="A29" s="59"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="48"/>
+    </row>
+    <row r="30" spans="1:7" ht="13">
+      <c r="A30" s="56"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="48"/>
+    </row>
+    <row r="31" spans="1:7" ht="14">
+      <c r="A31" s="61"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="48"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="48"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1214,132 +1705,132 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="11"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.21875" style="28" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="28" customWidth="1"/>
-    <col min="4" max="5" width="3" style="28" customWidth="1"/>
-    <col min="6" max="6" width="4.33203125" style="28" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="28"/>
-    <col min="8" max="9" width="3" style="28" customWidth="1"/>
-    <col min="10" max="16384" width="11.5546875" style="28"/>
+    <col min="1" max="1" width="26.83203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.1640625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="24" customWidth="1"/>
+    <col min="4" max="5" width="3" style="24" customWidth="1"/>
+    <col min="6" max="6" width="4.33203125" style="24" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="24"/>
+    <col min="8" max="9" width="3" style="24" customWidth="1"/>
+    <col min="10" max="16384" width="11.5" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="11.4">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:9" ht="13">
+      <c r="A1" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="29"/>
-    </row>
-    <row r="2" spans="1:9" ht="11.4">
-      <c r="E2" s="23"/>
-      <c r="F2" s="29"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-    </row>
-    <row r="3" spans="1:9" ht="11.4">
-      <c r="A3" s="24" t="s">
+      <c r="F1" s="25"/>
+    </row>
+    <row r="2" spans="1:9" ht="13">
+      <c r="E2" s="20"/>
+      <c r="F2" s="25"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+    </row>
+    <row r="3" spans="1:9" ht="15">
+      <c r="A3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="26" t="s">
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-    </row>
-    <row r="4" spans="1:9" ht="11.4">
-      <c r="A4" s="32" t="s">
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+    </row>
+    <row r="4" spans="1:9" ht="13">
+      <c r="A4" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="11.4">
-      <c r="A5" s="32" t="s">
+    <row r="5" spans="1:9" ht="13">
+      <c r="A5" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="11.4">
-      <c r="A6" s="32" t="s">
+    <row r="6" spans="1:9" ht="13">
+      <c r="A6" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="11.4">
-      <c r="A7" s="32" t="s">
+    <row r="7" spans="1:9" ht="13">
+      <c r="A7" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="11.4">
-      <c r="A8" s="32" t="s">
+    <row r="8" spans="1:9" ht="13">
+      <c r="A8" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="11.4">
-      <c r="A9" s="32" t="s">
+    <row r="9" spans="1:9" ht="13">
+      <c r="A9" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="G9" s="26" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="11.4">
-      <c r="A10" s="32" t="s">
+    <row r="10" spans="1:9" ht="13">
+      <c r="A10" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="26" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="24" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1365,4 +1856,762 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7026BC7C-D35E-114A-8D2E-2B0B66761D57}">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="68">
+      <c r="A1" s="64"/>
+      <c r="B1" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="64" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="65" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="34">
+      <c r="A2" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="67">
+        <v>28000</v>
+      </c>
+      <c r="D2" s="68">
+        <v>2333.33</v>
+      </c>
+      <c r="E2" s="68">
+        <v>14.583299999999999</v>
+      </c>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+    </row>
+    <row r="3" spans="1:8" ht="51">
+      <c r="A3" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="67">
+        <v>24795</v>
+      </c>
+      <c r="D3" s="68">
+        <v>2066.25</v>
+      </c>
+      <c r="E3" s="68">
+        <v>12.914099999999999</v>
+      </c>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+    </row>
+    <row r="4" spans="1:8" ht="34">
+      <c r="A4" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="67">
+        <v>20066</v>
+      </c>
+      <c r="D4" s="68">
+        <v>1672.17</v>
+      </c>
+      <c r="E4" s="68">
+        <v>10.451000000000001</v>
+      </c>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+    </row>
+    <row r="5" spans="1:8" ht="51">
+      <c r="A5" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="67">
+        <v>23000</v>
+      </c>
+      <c r="D5" s="68">
+        <v>1916.67</v>
+      </c>
+      <c r="E5" s="68">
+        <v>11.979200000000001</v>
+      </c>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+    </row>
+    <row r="6" spans="1:8" ht="34">
+      <c r="A6" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="67">
+        <v>43000</v>
+      </c>
+      <c r="D6" s="68">
+        <v>3583.33</v>
+      </c>
+      <c r="E6" s="68">
+        <v>22.395800000000001</v>
+      </c>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+    </row>
+    <row r="7" spans="1:8" ht="34">
+      <c r="A7" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="67">
+        <v>21558</v>
+      </c>
+      <c r="D7" s="68">
+        <v>1796.5</v>
+      </c>
+      <c r="E7" s="68">
+        <v>11.2281</v>
+      </c>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+    </row>
+    <row r="8" spans="1:8" ht="17">
+      <c r="A8" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="67">
+        <v>35058</v>
+      </c>
+      <c r="D8" s="68">
+        <v>2921.5</v>
+      </c>
+      <c r="E8" s="68">
+        <v>18.259399999999999</v>
+      </c>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+    </row>
+    <row r="9" spans="1:8" ht="16">
+      <c r="A9" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="76"/>
+      <c r="C9" s="70">
+        <v>195477</v>
+      </c>
+      <c r="D9" s="70">
+        <v>16290</v>
+      </c>
+      <c r="E9" s="71">
+        <v>102</v>
+      </c>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+    </row>
+    <row r="10" spans="1:8" ht="16">
+      <c r="A10" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="76"/>
+      <c r="C10" s="70">
+        <v>71000</v>
+      </c>
+      <c r="D10" s="70">
+        <v>5917</v>
+      </c>
+      <c r="E10" s="71">
+        <v>37</v>
+      </c>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="https://www.glassdoor.es/Sueldos/valencia-programador-sueldo-SRCH_IL.0,8_IC2639089_KO9,20.htm?clickSource=searchBtn" xr:uid="{00CC8C11-0DC1-5C41-9652-296EF7A8CAA2}"/>
+    <hyperlink ref="C3" r:id="rId2" display="https://www.glassdoor.es/Sueldos/valencia-java-developer-sueldo-SRCH_IL.0,8_IC2639089_KO9,23.htm?clickSource=searchBtn" xr:uid="{503B5C8D-AFDE-2348-AF6E-9FF19C52A776}"/>
+    <hyperlink ref="C4" r:id="rId3" display="https://www.glassdoor.es/Sueldos/valencia-desarrollador-web-sueldo-SRCH_IL.0,8_IC2639089_KO9,26.htm?clickSource=searchBtn" xr:uid="{C5F67A9C-C30C-5D4A-9467-C00B3E4A45F6}"/>
+    <hyperlink ref="C5" r:id="rId4" display="https://www.glassdoor.es/Sueldo/arquitecto-cloud-Consultor-IT-Sueldos-E3135174_D_KO17,29.htm" xr:uid="{2FD3D4C0-1600-BB46-86B6-E593B3752836}"/>
+    <hyperlink ref="C6" r:id="rId5" display="https://www.glassdoor.es/Sueldos/valencia-project-manager-sueldo-SRCH_IL.0,8_IC2639089_KO9,24.htm?clickSource=searchBtn" xr:uid="{781E8288-76B9-304E-B9CA-6DB3D8F6EB42}"/>
+    <hyperlink ref="C7" r:id="rId6" display="https://www.glassdoor.es/Sueldos/valencia-data-analyst-sueldo-SRCH_IL.0,8_IC2639089_KO9,21.htm?clickSource=searchBtn" xr:uid="{958F6261-335A-2545-A65A-D0D06D2A5868}"/>
+    <hyperlink ref="C8" r:id="rId7" display="https://www.glassdoor.es/Sueldos/valencia-devops-sueldo-SRCH_IL.0,8_IC2639089_KO9,15.htm?clickSource=searchBtn" xr:uid="{FAFDEB84-3A4A-514F-8A30-4FC48E0CB0C4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF675A3F-3ADE-DE45-9EDD-EDB58131558F}">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="9.33203125" customWidth="1"/>
+    <col min="3" max="3" width="62.5" customWidth="1"/>
+    <col min="4" max="4" width="55.33203125" customWidth="1"/>
+    <col min="5" max="5" width="63.83203125" customWidth="1"/>
+    <col min="6" max="6" width="54.1640625" customWidth="1"/>
+    <col min="7" max="7" width="51.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16">
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="35"/>
+    </row>
+    <row r="2" spans="1:7" ht="16">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="35"/>
+    </row>
+    <row r="3" spans="1:7" ht="17" thickBot="1">
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="35"/>
+    </row>
+    <row r="4" spans="1:7" ht="17" thickBot="1">
+      <c r="A4" s="34"/>
+      <c r="B4" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16">
+      <c r="A5" s="34"/>
+      <c r="B5" s="38">
+        <v>16</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16">
+      <c r="A6" s="34"/>
+      <c r="B6" s="38">
+        <v>17</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16">
+      <c r="A7" s="34"/>
+      <c r="B7" s="38">
+        <v>18</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16">
+      <c r="A8" s="34"/>
+      <c r="B8" s="38">
+        <v>19</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16">
+      <c r="A9" s="34"/>
+      <c r="B9" s="38">
+        <v>20</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16">
+      <c r="A10" s="34"/>
+      <c r="B10" s="38">
+        <v>21</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16">
+      <c r="A11" s="34"/>
+      <c r="B11" s="38">
+        <v>22</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16">
+      <c r="A12" s="34"/>
+      <c r="B12" s="38">
+        <v>23</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16">
+      <c r="A13" s="34"/>
+      <c r="B13" s="38">
+        <v>24</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16">
+      <c r="A14" s="34"/>
+      <c r="B14" s="38">
+        <v>25</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16">
+      <c r="A15" s="34"/>
+      <c r="B15" s="38">
+        <v>26</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16">
+      <c r="A16" s="34"/>
+      <c r="B16" s="38">
+        <v>27</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16">
+      <c r="A17" s="34"/>
+      <c r="B17" s="38">
+        <v>28</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16">
+      <c r="A18" s="34"/>
+      <c r="B18" s="38">
+        <v>29</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16">
+      <c r="A19" s="34"/>
+      <c r="B19" s="38">
+        <v>30</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="16">
+      <c r="A20" s="34"/>
+      <c r="B20" s="38">
+        <v>31</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16">
+      <c r="A21" s="34"/>
+      <c r="B21" s="38">
+        <v>1</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" s="40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="16">
+      <c r="A22" s="34"/>
+      <c r="B22" s="38">
+        <v>2</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" s="40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="16">
+      <c r="A23" s="35"/>
+      <c r="B23" s="38">
+        <v>3</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" s="40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="17" thickBot="1">
+      <c r="A24" s="35"/>
+      <c r="B24" s="38">
+        <v>4</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" s="40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="17" thickBot="1">
+      <c r="A25" s="35"/>
+      <c r="B25" s="36">
+        <v>5</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25" s="47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="16">
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+    </row>
+    <row r="27" spans="1:7" ht="16">
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Personal. Sueldos y personas.xlsx
+++ b/Personal. Sueldos y personas.xlsx
@@ -1,27 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Maria/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanl\Dropbox\I.Informatica\Master\dataproject2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3959B2-17A6-EA48-8594-4D8FC77298CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB3DF05-F31F-4C85-8B9C-3198CE70D692}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3280" yWindow="640" windowWidth="24940" windowHeight="13000" activeTab="3" xr2:uid="{A583D204-05A2-4044-A2BD-4417A8574E97}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{A583D204-05A2-4044-A2BD-4417A8574E97}"/>
   </bookViews>
   <sheets>
     <sheet name="salarios equipo. esc. vcia mad" sheetId="1" r:id="rId1"/>
-    <sheet name="candidatos" sheetId="3" r:id="rId2"/>
-    <sheet name="S.Modificados" sheetId="5" r:id="rId3"/>
-    <sheet name="Actividades" sheetId="4" r:id="rId4"/>
+    <sheet name="Roles Pedro" sheetId="7" r:id="rId2"/>
+    <sheet name="candidatos" sheetId="3" r:id="rId3"/>
+    <sheet name="S.Modificados" sheetId="5" r:id="rId4"/>
+    <sheet name="Actividades" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -35,19 +45,10 @@
   <commentList>
     <comment ref="C8" authorId="0" shapeId="0" xr:uid="{C099D30C-1471-4E99-BEB4-06F5D71D4611}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Comentario encadenado]
+        <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     no he localizado referencias en glassdoor</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="99">
   <si>
     <t>Programador</t>
   </si>
@@ -301,6 +302,57 @@
   </si>
   <si>
     <t>Total Salario Bruto Anual</t>
+  </si>
+  <si>
+    <t>Data Engineer Junior</t>
+  </si>
+  <si>
+    <t>Data Engineer Senior</t>
+  </si>
+  <si>
+    <t>Cloud Arquitect</t>
+  </si>
+  <si>
+    <t>Cloud Developer</t>
+  </si>
+  <si>
+    <t>Full Stack Developer</t>
+  </si>
+  <si>
+    <t>DevOps</t>
+  </si>
+  <si>
+    <t>Scrum Master</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>UX</t>
+  </si>
+  <si>
+    <t>29K</t>
+  </si>
+  <si>
+    <t>50K</t>
+  </si>
+  <si>
+    <t>43K</t>
+  </si>
+  <si>
+    <t>40K</t>
+  </si>
+  <si>
+    <t>26K</t>
+  </si>
+  <si>
+    <t>37K</t>
+  </si>
+  <si>
+    <t>22K</t>
+  </si>
+  <si>
+    <t>28K</t>
   </si>
 </sst>
 </file>
@@ -1172,32 +1224,32 @@
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="11"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="10.5"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="30" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="31" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" style="30" customWidth="1"/>
-    <col min="5" max="5" width="5.5" style="30" customWidth="1"/>
-    <col min="6" max="6" width="6.83203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.83203125" style="30" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="30"/>
-    <col min="11" max="16384" width="11.5" style="31"/>
+    <col min="1" max="1" width="26.1796875" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.36328125" style="30" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="7.6328125" style="30" customWidth="1"/>
+    <col min="5" max="5" width="5.453125" style="30" customWidth="1"/>
+    <col min="6" max="6" width="6.81640625" style="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.453125" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6328125" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.81640625" style="30" customWidth="1"/>
+    <col min="10" max="10" width="11.453125" style="30"/>
+    <col min="11" max="16384" width="11.453125" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13">
+    <row r="1" spans="1:9" ht="11.5">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="13">
+    <row r="2" spans="1:9" ht="11.5">
       <c r="E2" s="14"/>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="11.5">
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
@@ -1214,7 +1266,7 @@
       <c r="H3" s="73"/>
       <c r="I3" s="73"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9">
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
@@ -1238,7 +1290,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="13">
+    <row r="5" spans="1:9" ht="11.5">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1271,7 +1323,7 @@
         <v>13.1234375</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="13">
+    <row r="6" spans="1:9" ht="11.5">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -1304,7 +1356,7 @@
         <v>12.932812500000001</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="13">
+    <row r="7" spans="1:9" ht="11.5">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -1337,7 +1389,7 @@
         <v>16.818229166666665</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="13">
+    <row r="8" spans="1:9" ht="11.5">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -1370,7 +1422,7 @@
         <v>26.028124999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="13">
+    <row r="9" spans="1:9" ht="11.5">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -1403,7 +1455,7 @@
         <v>24.644270833333334</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="13">
+    <row r="10" spans="1:9" ht="11.5">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -1436,7 +1488,7 @@
         <v>14.606770833333334</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="13">
+    <row r="11" spans="1:9" ht="11.5">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -1479,7 +1531,7 @@
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
     </row>
-    <row r="13" spans="1:9" s="30" customFormat="1" ht="13">
+    <row r="13" spans="1:9" s="30" customFormat="1">
       <c r="B13" s="10" t="s">
         <v>25</v>
       </c>
@@ -1509,7 +1561,7 @@
         <v>126.628125</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="30" customFormat="1" ht="13">
+    <row r="14" spans="1:9" s="30" customFormat="1">
       <c r="B14" s="10" t="s">
         <v>6</v>
       </c>
@@ -1539,7 +1591,7 @@
         <v>37.767708333333331</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="13">
+    <row r="15" spans="1:9">
       <c r="B15" s="12"/>
       <c r="C15" s="2"/>
       <c r="D15" s="12"/>
@@ -1549,7 +1601,7 @@
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="1:9" ht="13">
+    <row r="16" spans="1:9">
       <c r="B16" s="12"/>
       <c r="C16" s="2"/>
       <c r="D16" s="12"/>
@@ -1656,7 +1708,7 @@
       <c r="F30" s="50"/>
       <c r="G30" s="48"/>
     </row>
-    <row r="31" spans="1:7" ht="14">
+    <row r="31" spans="1:7" ht="13">
       <c r="A31" s="61"/>
       <c r="B31" s="62"/>
       <c r="C31" s="63"/>
@@ -1701,6 +1753,109 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40CC1CBE-46BA-4B47-995D-A2FD4AAB6A32}">
+  <dimension ref="B2:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A9F840-D566-4275-BA1B-F66A2FCEFED1}">
   <dimension ref="A1:I24"/>
   <sheetViews>
@@ -1708,19 +1863,19 @@
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="11"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="10.5"/>
   <cols>
-    <col min="1" max="1" width="26.83203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.1640625" style="24" customWidth="1"/>
-    <col min="3" max="3" width="18.5" style="24" customWidth="1"/>
+    <col min="1" max="1" width="26.81640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.1796875" style="24" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" style="24" customWidth="1"/>
     <col min="4" max="5" width="3" style="24" customWidth="1"/>
-    <col min="6" max="6" width="4.33203125" style="24" customWidth="1"/>
-    <col min="7" max="7" width="11.5" style="24"/>
+    <col min="6" max="6" width="4.36328125" style="24" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" style="24"/>
     <col min="8" max="9" width="3" style="24" customWidth="1"/>
-    <col min="10" max="16384" width="11.5" style="24"/>
+    <col min="10" max="16384" width="11.453125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13">
+    <row r="1" spans="1:9" ht="11.5">
       <c r="A1" s="19" t="s">
         <v>23</v>
       </c>
@@ -1729,13 +1884,13 @@
       </c>
       <c r="F1" s="25"/>
     </row>
-    <row r="2" spans="1:9" ht="13">
+    <row r="2" spans="1:9" ht="11.5">
       <c r="E2" s="20"/>
       <c r="F2" s="25"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="11.5">
       <c r="A3" s="21" t="s">
         <v>12</v>
       </c>
@@ -1752,7 +1907,7 @@
       <c r="H3" s="75"/>
       <c r="I3" s="75"/>
     </row>
-    <row r="4" spans="1:9" ht="13">
+    <row r="4" spans="1:9" ht="11.5">
       <c r="A4" s="28" t="s">
         <v>0</v>
       </c>
@@ -1763,7 +1918,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="13">
+    <row r="5" spans="1:9" ht="11.5">
       <c r="A5" s="28" t="s">
         <v>1</v>
       </c>
@@ -1774,7 +1929,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="13">
+    <row r="6" spans="1:9" ht="11.5">
       <c r="A6" s="28" t="s">
         <v>2</v>
       </c>
@@ -1785,7 +1940,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="13">
+    <row r="7" spans="1:9" ht="11.5">
       <c r="A7" s="28" t="s">
         <v>3</v>
       </c>
@@ -1796,7 +1951,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="13">
+    <row r="8" spans="1:9" ht="11.5">
       <c r="A8" s="28" t="s">
         <v>15</v>
       </c>
@@ -1807,7 +1962,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="13">
+    <row r="9" spans="1:9" ht="11.5">
       <c r="A9" s="28" t="s">
         <v>4</v>
       </c>
@@ -1818,7 +1973,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="13">
+    <row r="10" spans="1:9" ht="11.5">
       <c r="A10" s="28" t="s">
         <v>5</v>
       </c>
@@ -1858,7 +2013,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7026BC7C-D35E-114A-8D2E-2B0B66761D57}">
   <dimension ref="A1:H10"/>
   <sheetViews>
@@ -1866,9 +2021,9 @@
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="68">
+    <row r="1" spans="1:8" ht="62">
       <c r="A1" s="64"/>
       <c r="B1" s="64" t="s">
         <v>7</v>
@@ -1892,7 +2047,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="34">
+    <row r="2" spans="1:8" ht="31">
       <c r="A2" s="64" t="s">
         <v>0</v>
       </c>
@@ -1912,7 +2067,7 @@
       <c r="G2" s="69"/>
       <c r="H2" s="69"/>
     </row>
-    <row r="3" spans="1:8" ht="51">
+    <row r="3" spans="1:8" ht="62">
       <c r="A3" s="64" t="s">
         <v>71</v>
       </c>
@@ -1932,7 +2087,7 @@
       <c r="G3" s="69"/>
       <c r="H3" s="69"/>
     </row>
-    <row r="4" spans="1:8" ht="34">
+    <row r="4" spans="1:8" ht="46.5">
       <c r="A4" s="64" t="s">
         <v>2</v>
       </c>
@@ -1952,7 +2107,7 @@
       <c r="G4" s="69"/>
       <c r="H4" s="69"/>
     </row>
-    <row r="5" spans="1:8" ht="51">
+    <row r="5" spans="1:8" ht="46.5">
       <c r="A5" s="64" t="s">
         <v>72</v>
       </c>
@@ -1972,7 +2127,7 @@
       <c r="G5" s="69"/>
       <c r="H5" s="69"/>
     </row>
-    <row r="6" spans="1:8" ht="34">
+    <row r="6" spans="1:8" ht="31">
       <c r="A6" s="64" t="s">
         <v>15</v>
       </c>
@@ -1992,7 +2147,7 @@
       <c r="G6" s="69"/>
       <c r="H6" s="69"/>
     </row>
-    <row r="7" spans="1:8" ht="34">
+    <row r="7" spans="1:8" ht="31">
       <c r="A7" s="64" t="s">
         <v>73</v>
       </c>
@@ -2012,7 +2167,7 @@
       <c r="G7" s="69"/>
       <c r="H7" s="69"/>
     </row>
-    <row r="8" spans="1:8" ht="17">
+    <row r="8" spans="1:8" ht="15.5">
       <c r="A8" s="64" t="s">
         <v>74</v>
       </c>
@@ -2032,7 +2187,7 @@
       <c r="G8" s="69"/>
       <c r="H8" s="69"/>
     </row>
-    <row r="9" spans="1:8" ht="16">
+    <row r="9" spans="1:8" ht="15.5">
       <c r="A9" s="76" t="s">
         <v>75</v>
       </c>
@@ -2050,7 +2205,7 @@
       <c r="G9" s="69"/>
       <c r="H9" s="69"/>
     </row>
-    <row r="10" spans="1:8" ht="16">
+    <row r="10" spans="1:8" ht="15.5">
       <c r="A10" s="76" t="s">
         <v>6</v>
       </c>
@@ -2086,25 +2241,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF675A3F-3ADE-DE45-9EDD-EDB58131558F}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="9.33203125" customWidth="1"/>
-    <col min="3" max="3" width="62.5" customWidth="1"/>
-    <col min="4" max="4" width="55.33203125" customWidth="1"/>
-    <col min="5" max="5" width="63.83203125" customWidth="1"/>
-    <col min="6" max="6" width="54.1640625" customWidth="1"/>
-    <col min="7" max="7" width="51.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.36328125" customWidth="1"/>
+    <col min="3" max="3" width="62.453125" customWidth="1"/>
+    <col min="4" max="4" width="55.36328125" customWidth="1"/>
+    <col min="5" max="5" width="63.81640625" customWidth="1"/>
+    <col min="6" max="6" width="54.1796875" customWidth="1"/>
+    <col min="7" max="7" width="51.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16">
+    <row r="1" spans="1:7" ht="15.5">
       <c r="A1" s="34"/>
       <c r="B1" s="34"/>
       <c r="C1" s="34"/>
@@ -2113,7 +2268,7 @@
       <c r="F1" s="34"/>
       <c r="G1" s="35"/>
     </row>
-    <row r="2" spans="1:7" ht="16">
+    <row r="2" spans="1:7" ht="15.5">
       <c r="A2" s="34"/>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -2122,7 +2277,7 @@
       <c r="F2" s="34"/>
       <c r="G2" s="35"/>
     </row>
-    <row r="3" spans="1:7" ht="17" thickBot="1">
+    <row r="3" spans="1:7" ht="16" thickBot="1">
       <c r="A3" s="34"/>
       <c r="B3" s="34"/>
       <c r="C3" s="34"/>
@@ -2131,7 +2286,7 @@
       <c r="F3" s="34"/>
       <c r="G3" s="35"/>
     </row>
-    <row r="4" spans="1:7" ht="17" thickBot="1">
+    <row r="4" spans="1:7" ht="16" thickBot="1">
       <c r="A4" s="34"/>
       <c r="B4" s="36" t="s">
         <v>43</v>
@@ -2152,7 +2307,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16">
+    <row r="5" spans="1:7" ht="15.5">
       <c r="A5" s="34"/>
       <c r="B5" s="38">
         <v>16</v>
@@ -2173,7 +2328,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16">
+    <row r="6" spans="1:7" ht="15.5">
       <c r="A6" s="34"/>
       <c r="B6" s="38">
         <v>17</v>
@@ -2194,7 +2349,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16">
+    <row r="7" spans="1:7" ht="15.5">
       <c r="A7" s="34"/>
       <c r="B7" s="38">
         <v>18</v>
@@ -2215,7 +2370,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16">
+    <row r="8" spans="1:7" ht="15.5">
       <c r="A8" s="34"/>
       <c r="B8" s="38">
         <v>19</v>
@@ -2236,7 +2391,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16">
+    <row r="9" spans="1:7" ht="15.5">
       <c r="A9" s="34"/>
       <c r="B9" s="38">
         <v>20</v>
@@ -2257,7 +2412,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16">
+    <row r="10" spans="1:7" ht="15.5">
       <c r="A10" s="34"/>
       <c r="B10" s="38">
         <v>21</v>
@@ -2278,7 +2433,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16">
+    <row r="11" spans="1:7" ht="15.5">
       <c r="A11" s="34"/>
       <c r="B11" s="38">
         <v>22</v>
@@ -2299,7 +2454,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16">
+    <row r="12" spans="1:7" ht="15.5">
       <c r="A12" s="34"/>
       <c r="B12" s="38">
         <v>23</v>
@@ -2320,7 +2475,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16">
+    <row r="13" spans="1:7" ht="15.5">
       <c r="A13" s="34"/>
       <c r="B13" s="38">
         <v>24</v>
@@ -2341,7 +2496,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16">
+    <row r="14" spans="1:7" ht="15.5">
       <c r="A14" s="34"/>
       <c r="B14" s="38">
         <v>25</v>
@@ -2362,7 +2517,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16">
+    <row r="15" spans="1:7" ht="15.5">
       <c r="A15" s="34"/>
       <c r="B15" s="38">
         <v>26</v>
@@ -2383,7 +2538,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16">
+    <row r="16" spans="1:7" ht="15.5">
       <c r="A16" s="34"/>
       <c r="B16" s="38">
         <v>27</v>
@@ -2404,7 +2559,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16">
+    <row r="17" spans="1:7" ht="15.5">
       <c r="A17" s="34"/>
       <c r="B17" s="38">
         <v>28</v>
@@ -2425,7 +2580,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16">
+    <row r="18" spans="1:7" ht="15.5">
       <c r="A18" s="34"/>
       <c r="B18" s="38">
         <v>29</v>
@@ -2446,7 +2601,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16">
+    <row r="19" spans="1:7" ht="15.5">
       <c r="A19" s="34"/>
       <c r="B19" s="38">
         <v>30</v>
@@ -2467,7 +2622,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16">
+    <row r="20" spans="1:7" ht="15.5">
       <c r="A20" s="34"/>
       <c r="B20" s="38">
         <v>31</v>
@@ -2488,7 +2643,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16">
+    <row r="21" spans="1:7" ht="15.5">
       <c r="A21" s="34"/>
       <c r="B21" s="38">
         <v>1</v>
@@ -2509,7 +2664,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16">
+    <row r="22" spans="1:7" ht="15.5">
       <c r="A22" s="34"/>
       <c r="B22" s="38">
         <v>2</v>
@@ -2530,7 +2685,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16">
+    <row r="23" spans="1:7" ht="15.5">
       <c r="A23" s="35"/>
       <c r="B23" s="38">
         <v>3</v>
@@ -2551,7 +2706,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="17" thickBot="1">
+    <row r="24" spans="1:7" ht="16" thickBot="1">
       <c r="A24" s="35"/>
       <c r="B24" s="38">
         <v>4</v>
@@ -2572,7 +2727,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="17" thickBot="1">
+    <row r="25" spans="1:7" ht="16" thickBot="1">
       <c r="A25" s="35"/>
       <c r="B25" s="36">
         <v>5</v>
@@ -2593,7 +2748,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="16">
+    <row r="26" spans="1:7" ht="15.5">
       <c r="A26" s="35"/>
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
@@ -2602,7 +2757,7 @@
       <c r="F26" s="35"/>
       <c r="G26" s="35"/>
     </row>
-    <row r="27" spans="1:7" ht="16">
+    <row r="27" spans="1:7" ht="15.5">
       <c r="A27" s="35"/>
       <c r="B27" s="35"/>
       <c r="C27" s="35"/>

--- a/Personal. Sueldos y personas.xlsx
+++ b/Personal. Sueldos y personas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanl\Dropbox\I.Informatica\Master\dataproject2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosdonosocabero/Desktop/MDA/Data_Project_Management/dataproject2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB3DF05-F31F-4C85-8B9C-3198CE70D692}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47AD5B3D-3729-C946-BFE8-68254C017B0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{A583D204-05A2-4044-A2BD-4417A8574E97}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{A583D204-05A2-4044-A2BD-4417A8574E97}"/>
   </bookViews>
   <sheets>
     <sheet name="salarios equipo. esc. vcia mad" sheetId="1" r:id="rId1"/>
@@ -1221,35 +1221,35 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="10.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="11"/>
   <cols>
-    <col min="1" max="1" width="26.1796875" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.36328125" style="30" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" style="31" customWidth="1"/>
-    <col min="4" max="4" width="7.6328125" style="30" customWidth="1"/>
-    <col min="5" max="5" width="5.453125" style="30" customWidth="1"/>
-    <col min="6" max="6" width="6.81640625" style="32" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.453125" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6328125" style="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.81640625" style="30" customWidth="1"/>
-    <col min="10" max="10" width="11.453125" style="30"/>
-    <col min="11" max="16384" width="11.453125" style="31"/>
+    <col min="1" max="1" width="26.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="30" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="31" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="30" customWidth="1"/>
+    <col min="5" max="5" width="5.5" style="30" customWidth="1"/>
+    <col min="6" max="6" width="6.83203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.83203125" style="30" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="30"/>
+    <col min="11" max="16384" width="11.5" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="11.5">
+    <row r="1" spans="1:9" ht="13">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="11.5">
+    <row r="2" spans="1:9" ht="13">
       <c r="E2" s="14"/>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:9" ht="11.5">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
@@ -1266,7 +1266,7 @@
       <c r="H3" s="73"/>
       <c r="I3" s="73"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" ht="15">
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="11.5">
+    <row r="5" spans="1:9" ht="13">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>13.1234375</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="11.5">
+    <row r="6" spans="1:9" ht="13">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>12.932812500000001</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="11.5">
+    <row r="7" spans="1:9" ht="13">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>16.818229166666665</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="11.5">
+    <row r="8" spans="1:9" ht="13">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>26.028124999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="11.5">
+    <row r="9" spans="1:9" ht="13">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -1455,9 +1455,9 @@
         <v>24.644270833333334</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="11.5">
+    <row r="10" spans="1:9" ht="13">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>11</v>
@@ -1488,7 +1488,7 @@
         <v>14.606770833333334</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="11.5">
+    <row r="11" spans="1:9" ht="13">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -1531,7 +1531,7 @@
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
     </row>
-    <row r="13" spans="1:9" s="30" customFormat="1">
+    <row r="13" spans="1:9" s="30" customFormat="1" ht="13">
       <c r="B13" s="10" t="s">
         <v>25</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>126.628125</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="30" customFormat="1">
+    <row r="14" spans="1:9" s="30" customFormat="1" ht="13">
       <c r="B14" s="10" t="s">
         <v>6</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>37.767708333333331</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" ht="13">
       <c r="B15" s="12"/>
       <c r="C15" s="2"/>
       <c r="D15" s="12"/>
@@ -1601,7 +1601,7 @@
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" ht="13">
       <c r="B16" s="12"/>
       <c r="C16" s="2"/>
       <c r="D16" s="12"/>
@@ -1708,7 +1708,7 @@
       <c r="F30" s="50"/>
       <c r="G30" s="48"/>
     </row>
-    <row r="31" spans="1:7" ht="13">
+    <row r="31" spans="1:7" ht="14">
       <c r="A31" s="61"/>
       <c r="B31" s="62"/>
       <c r="C31" s="63"/>
@@ -1756,11 +1756,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40CC1CBE-46BA-4B47-995D-A2FD4AAB6A32}">
   <dimension ref="B2:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" t="s">
@@ -1863,19 +1863,19 @@
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="10.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="11"/>
   <cols>
-    <col min="1" max="1" width="26.81640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.1796875" style="24" customWidth="1"/>
-    <col min="3" max="3" width="18.453125" style="24" customWidth="1"/>
+    <col min="1" max="1" width="26.83203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.1640625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="24" customWidth="1"/>
     <col min="4" max="5" width="3" style="24" customWidth="1"/>
-    <col min="6" max="6" width="4.36328125" style="24" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" style="24"/>
+    <col min="6" max="6" width="4.33203125" style="24" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="24"/>
     <col min="8" max="9" width="3" style="24" customWidth="1"/>
-    <col min="10" max="16384" width="11.453125" style="24"/>
+    <col min="10" max="16384" width="11.5" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="11.5">
+    <row r="1" spans="1:9" ht="13">
       <c r="A1" s="19" t="s">
         <v>23</v>
       </c>
@@ -1884,13 +1884,13 @@
       </c>
       <c r="F1" s="25"/>
     </row>
-    <row r="2" spans="1:9" ht="11.5">
+    <row r="2" spans="1:9" ht="13">
       <c r="E2" s="20"/>
       <c r="F2" s="25"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
     </row>
-    <row r="3" spans="1:9" ht="11.5">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="21" t="s">
         <v>12</v>
       </c>
@@ -1907,7 +1907,7 @@
       <c r="H3" s="75"/>
       <c r="I3" s="75"/>
     </row>
-    <row r="4" spans="1:9" ht="11.5">
+    <row r="4" spans="1:9" ht="13">
       <c r="A4" s="28" t="s">
         <v>0</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="11.5">
+    <row r="5" spans="1:9" ht="13">
       <c r="A5" s="28" t="s">
         <v>1</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="11.5">
+    <row r="6" spans="1:9" ht="13">
       <c r="A6" s="28" t="s">
         <v>2</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="11.5">
+    <row r="7" spans="1:9" ht="13">
       <c r="A7" s="28" t="s">
         <v>3</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="11.5">
+    <row r="8" spans="1:9" ht="13">
       <c r="A8" s="28" t="s">
         <v>15</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="11.5">
+    <row r="9" spans="1:9" ht="13">
       <c r="A9" s="28" t="s">
         <v>4</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="11.5">
+    <row r="10" spans="1:9" ht="13">
       <c r="A10" s="28" t="s">
         <v>5</v>
       </c>
@@ -2021,9 +2021,9 @@
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="62">
+    <row r="1" spans="1:8" ht="68">
       <c r="A1" s="64"/>
       <c r="B1" s="64" t="s">
         <v>7</v>
@@ -2047,7 +2047,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="31">
+    <row r="2" spans="1:8" ht="34">
       <c r="A2" s="64" t="s">
         <v>0</v>
       </c>
@@ -2067,7 +2067,7 @@
       <c r="G2" s="69"/>
       <c r="H2" s="69"/>
     </row>
-    <row r="3" spans="1:8" ht="62">
+    <row r="3" spans="1:8" ht="51">
       <c r="A3" s="64" t="s">
         <v>71</v>
       </c>
@@ -2087,7 +2087,7 @@
       <c r="G3" s="69"/>
       <c r="H3" s="69"/>
     </row>
-    <row r="4" spans="1:8" ht="46.5">
+    <row r="4" spans="1:8" ht="34">
       <c r="A4" s="64" t="s">
         <v>2</v>
       </c>
@@ -2107,7 +2107,7 @@
       <c r="G4" s="69"/>
       <c r="H4" s="69"/>
     </row>
-    <row r="5" spans="1:8" ht="46.5">
+    <row r="5" spans="1:8" ht="51">
       <c r="A5" s="64" t="s">
         <v>72</v>
       </c>
@@ -2127,7 +2127,7 @@
       <c r="G5" s="69"/>
       <c r="H5" s="69"/>
     </row>
-    <row r="6" spans="1:8" ht="31">
+    <row r="6" spans="1:8" ht="34">
       <c r="A6" s="64" t="s">
         <v>15</v>
       </c>
@@ -2147,7 +2147,7 @@
       <c r="G6" s="69"/>
       <c r="H6" s="69"/>
     </row>
-    <row r="7" spans="1:8" ht="31">
+    <row r="7" spans="1:8" ht="34">
       <c r="A7" s="64" t="s">
         <v>73</v>
       </c>
@@ -2167,7 +2167,7 @@
       <c r="G7" s="69"/>
       <c r="H7" s="69"/>
     </row>
-    <row r="8" spans="1:8" ht="15.5">
+    <row r="8" spans="1:8" ht="17">
       <c r="A8" s="64" t="s">
         <v>74</v>
       </c>
@@ -2187,7 +2187,7 @@
       <c r="G8" s="69"/>
       <c r="H8" s="69"/>
     </row>
-    <row r="9" spans="1:8" ht="15.5">
+    <row r="9" spans="1:8" ht="16">
       <c r="A9" s="76" t="s">
         <v>75</v>
       </c>
@@ -2205,7 +2205,7 @@
       <c r="G9" s="69"/>
       <c r="H9" s="69"/>
     </row>
-    <row r="10" spans="1:8" ht="15.5">
+    <row r="10" spans="1:8" ht="16">
       <c r="A10" s="76" t="s">
         <v>6</v>
       </c>
@@ -2245,21 +2245,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF675A3F-3ADE-DE45-9EDD-EDB58131558F}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="9.36328125" customWidth="1"/>
-    <col min="3" max="3" width="62.453125" customWidth="1"/>
-    <col min="4" max="4" width="55.36328125" customWidth="1"/>
-    <col min="5" max="5" width="63.81640625" customWidth="1"/>
-    <col min="6" max="6" width="54.1796875" customWidth="1"/>
-    <col min="7" max="7" width="51.36328125" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" customWidth="1"/>
+    <col min="3" max="3" width="62.5" customWidth="1"/>
+    <col min="4" max="4" width="55.33203125" customWidth="1"/>
+    <col min="5" max="5" width="63.83203125" customWidth="1"/>
+    <col min="6" max="6" width="54.1640625" customWidth="1"/>
+    <col min="7" max="7" width="51.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5">
+    <row r="1" spans="1:7" ht="16">
       <c r="A1" s="34"/>
       <c r="B1" s="34"/>
       <c r="C1" s="34"/>
@@ -2268,7 +2268,7 @@
       <c r="F1" s="34"/>
       <c r="G1" s="35"/>
     </row>
-    <row r="2" spans="1:7" ht="15.5">
+    <row r="2" spans="1:7" ht="16">
       <c r="A2" s="34"/>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -2277,7 +2277,7 @@
       <c r="F2" s="34"/>
       <c r="G2" s="35"/>
     </row>
-    <row r="3" spans="1:7" ht="16" thickBot="1">
+    <row r="3" spans="1:7" ht="17" thickBot="1">
       <c r="A3" s="34"/>
       <c r="B3" s="34"/>
       <c r="C3" s="34"/>
@@ -2286,7 +2286,7 @@
       <c r="F3" s="34"/>
       <c r="G3" s="35"/>
     </row>
-    <row r="4" spans="1:7" ht="16" thickBot="1">
+    <row r="4" spans="1:7" ht="17" thickBot="1">
       <c r="A4" s="34"/>
       <c r="B4" s="36" t="s">
         <v>43</v>
@@ -2307,7 +2307,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.5">
+    <row r="5" spans="1:7" ht="16">
       <c r="A5" s="34"/>
       <c r="B5" s="38">
         <v>16</v>
@@ -2328,7 +2328,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.5">
+    <row r="6" spans="1:7" ht="16">
       <c r="A6" s="34"/>
       <c r="B6" s="38">
         <v>17</v>
@@ -2349,7 +2349,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.5">
+    <row r="7" spans="1:7" ht="16">
       <c r="A7" s="34"/>
       <c r="B7" s="38">
         <v>18</v>
@@ -2370,7 +2370,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.5">
+    <row r="8" spans="1:7" ht="16">
       <c r="A8" s="34"/>
       <c r="B8" s="38">
         <v>19</v>
@@ -2391,7 +2391,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.5">
+    <row r="9" spans="1:7" ht="16">
       <c r="A9" s="34"/>
       <c r="B9" s="38">
         <v>20</v>
@@ -2412,7 +2412,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.5">
+    <row r="10" spans="1:7" ht="16">
       <c r="A10" s="34"/>
       <c r="B10" s="38">
         <v>21</v>
@@ -2433,7 +2433,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.5">
+    <row r="11" spans="1:7" ht="16">
       <c r="A11" s="34"/>
       <c r="B11" s="38">
         <v>22</v>
@@ -2454,7 +2454,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.5">
+    <row r="12" spans="1:7" ht="16">
       <c r="A12" s="34"/>
       <c r="B12" s="38">
         <v>23</v>
@@ -2475,7 +2475,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.5">
+    <row r="13" spans="1:7" ht="16">
       <c r="A13" s="34"/>
       <c r="B13" s="38">
         <v>24</v>
@@ -2496,7 +2496,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.5">
+    <row r="14" spans="1:7" ht="16">
       <c r="A14" s="34"/>
       <c r="B14" s="38">
         <v>25</v>
@@ -2517,7 +2517,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.5">
+    <row r="15" spans="1:7" ht="16">
       <c r="A15" s="34"/>
       <c r="B15" s="38">
         <v>26</v>
@@ -2538,7 +2538,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.5">
+    <row r="16" spans="1:7" ht="16">
       <c r="A16" s="34"/>
       <c r="B16" s="38">
         <v>27</v>
@@ -2559,7 +2559,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.5">
+    <row r="17" spans="1:7" ht="16">
       <c r="A17" s="34"/>
       <c r="B17" s="38">
         <v>28</v>
@@ -2580,7 +2580,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.5">
+    <row r="18" spans="1:7" ht="16">
       <c r="A18" s="34"/>
       <c r="B18" s="38">
         <v>29</v>
@@ -2601,7 +2601,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.5">
+    <row r="19" spans="1:7" ht="16">
       <c r="A19" s="34"/>
       <c r="B19" s="38">
         <v>30</v>
@@ -2622,7 +2622,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.5">
+    <row r="20" spans="1:7" ht="16">
       <c r="A20" s="34"/>
       <c r="B20" s="38">
         <v>31</v>
@@ -2643,7 +2643,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.5">
+    <row r="21" spans="1:7" ht="16">
       <c r="A21" s="34"/>
       <c r="B21" s="38">
         <v>1</v>
@@ -2664,7 +2664,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.5">
+    <row r="22" spans="1:7" ht="16">
       <c r="A22" s="34"/>
       <c r="B22" s="38">
         <v>2</v>
@@ -2685,7 +2685,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.5">
+    <row r="23" spans="1:7" ht="16">
       <c r="A23" s="35"/>
       <c r="B23" s="38">
         <v>3</v>
@@ -2706,7 +2706,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16" thickBot="1">
+    <row r="24" spans="1:7" ht="17" thickBot="1">
       <c r="A24" s="35"/>
       <c r="B24" s="38">
         <v>4</v>
@@ -2727,7 +2727,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="16" thickBot="1">
+    <row r="25" spans="1:7" ht="17" thickBot="1">
       <c r="A25" s="35"/>
       <c r="B25" s="36">
         <v>5</v>
@@ -2748,7 +2748,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.5">
+    <row r="26" spans="1:7" ht="16">
       <c r="A26" s="35"/>
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
@@ -2757,7 +2757,7 @@
       <c r="F26" s="35"/>
       <c r="G26" s="35"/>
     </row>
-    <row r="27" spans="1:7" ht="15.5">
+    <row r="27" spans="1:7" ht="16">
       <c r="A27" s="35"/>
       <c r="B27" s="35"/>
       <c r="C27" s="35"/>

--- a/Personal. Sueldos y personas.xlsx
+++ b/Personal. Sueldos y personas.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosdonosocabero/Desktop/MDA/Data_Project_Management/dataproject2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Maria/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47AD5B3D-3729-C946-BFE8-68254C017B0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E3650F-801D-CD43-A3C3-BA3F5621C08C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{A583D204-05A2-4044-A2BD-4417A8574E97}"/>
+    <workbookView xWindow="3540" yWindow="1560" windowWidth="23260" windowHeight="12580" xr2:uid="{A583D204-05A2-4044-A2BD-4417A8574E97}"/>
   </bookViews>
   <sheets>
-    <sheet name="salarios equipo. esc. vcia mad" sheetId="1" r:id="rId1"/>
-    <sheet name="Roles Pedro" sheetId="7" r:id="rId2"/>
+    <sheet name="versión 2" sheetId="6" r:id="rId1"/>
+    <sheet name="salarios equipo. esc. vcia mad" sheetId="1" r:id="rId2"/>
     <sheet name="candidatos" sheetId="3" r:id="rId3"/>
     <sheet name="S.Modificados" sheetId="5" r:id="rId4"/>
     <sheet name="Actividades" sheetId="4" r:id="rId5"/>
@@ -23,15 +23,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -45,10 +36,19 @@
   <commentList>
     <comment ref="C8" authorId="0" shapeId="0" xr:uid="{C099D30C-1471-4E99-BEB4-06F5D71D4611}">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     no he localizado referencias en glassdoor</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="98">
   <si>
     <t>Programador</t>
   </si>
@@ -106,27 +106,6 @@
     <t>Project Manager</t>
   </si>
   <si>
-    <t>+4,63%</t>
-  </si>
-  <si>
-    <t>+0,145%</t>
-  </si>
-  <si>
-    <t>+60,61%</t>
-  </si>
-  <si>
-    <t>+18,98%</t>
-  </si>
-  <si>
-    <t>+10,49%</t>
-  </si>
-  <si>
-    <t>+29,98%</t>
-  </si>
-  <si>
-    <t>+1,345</t>
-  </si>
-  <si>
     <t>Configuración equipo proyecto2</t>
   </si>
   <si>
@@ -304,62 +283,80 @@
     <t>Total Salario Bruto Anual</t>
   </si>
   <si>
-    <t>Data Engineer Junior</t>
-  </si>
-  <si>
-    <t>Data Engineer Senior</t>
-  </si>
-  <si>
-    <t>Cloud Arquitect</t>
+    <t>2ª Versión</t>
+  </si>
+  <si>
+    <t>Misión</t>
+  </si>
+  <si>
+    <t>Ubicación Valencia</t>
+  </si>
+  <si>
+    <t>estimacion</t>
+  </si>
+  <si>
+    <t>Mnto</t>
+  </si>
+  <si>
+    <t>Data Engineer. Junior</t>
+  </si>
+  <si>
+    <t>Data Engineer. Senior</t>
+  </si>
+  <si>
+    <t>Scrum Master</t>
   </si>
   <si>
     <t>Cloud Developer</t>
   </si>
   <si>
-    <t>Full Stack Developer</t>
-  </si>
-  <si>
-    <t>DevOps</t>
-  </si>
-  <si>
-    <t>Scrum Master</t>
-  </si>
-  <si>
-    <t>Marketing</t>
-  </si>
-  <si>
-    <t>UX</t>
-  </si>
-  <si>
-    <t>29K</t>
-  </si>
-  <si>
-    <t>50K</t>
-  </si>
-  <si>
-    <t>43K</t>
-  </si>
-  <si>
-    <t>40K</t>
-  </si>
-  <si>
-    <t>26K</t>
-  </si>
-  <si>
-    <t>37K</t>
-  </si>
-  <si>
-    <t>22K</t>
-  </si>
-  <si>
-    <t>28K</t>
+    <t>FullStack Web Developer</t>
+  </si>
+  <si>
+    <t>UX (User Experience)</t>
+  </si>
+  <si>
+    <t>Deveops</t>
+  </si>
+  <si>
+    <t>HelpDesk</t>
+  </si>
+  <si>
+    <t>TOTALES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>*(media horas laborales mes)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Aragonés Campos </t>
+  </si>
+  <si>
+    <t>Daniel Ruiz Riquelme</t>
+  </si>
+  <si>
+    <t>Annemarie Helmreich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Javier Molla </t>
+  </si>
+  <si>
+    <t>Laura Cruz</t>
+  </si>
+  <si>
+    <t>Javier Navarro</t>
+  </si>
+  <si>
+    <t>Yolanda I. Garrote</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="37">
+  <fonts count="44">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -600,6 +597,55 @@
     <font>
       <sz val="12"/>
       <color rgb="FF222B35"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="3" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF172B4D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="3" tint="-0.499984740745262"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -612,7 +658,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -736,12 +782,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -771,9 +828,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -874,6 +928,9 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -883,18 +940,87 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1217,31 +1343,713 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F832D78E-1042-4BBF-A006-75DDD5F65985}">
+  <sheetPr>
+    <tabColor theme="4" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A2:U22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="4.1640625" style="78" customWidth="1"/>
+    <col min="2" max="2" width="26.5" style="79" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" style="78" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" style="78" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="78" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="78" customWidth="1"/>
+    <col min="7" max="7" width="17.5" style="78" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="78" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="78" customWidth="1"/>
+    <col min="10" max="12" width="9.5" style="78" customWidth="1"/>
+    <col min="13" max="13" width="22.5" style="78" customWidth="1"/>
+    <col min="14" max="14" width="11.5" style="78"/>
+    <col min="15" max="16384" width="10.83203125" style="78"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:21">
+      <c r="B2" s="80" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="C3" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="83" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="78" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="87" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="82" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="82" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="85"/>
+      <c r="J4" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="87" t="s">
+        <v>79</v>
+      </c>
+      <c r="M4" s="87" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="89"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="90"/>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="78">
+        <v>29</v>
+      </c>
+      <c r="B5" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="78">
+        <v>1</v>
+      </c>
+      <c r="D5" s="78">
+        <v>1</v>
+      </c>
+      <c r="E5" s="78">
+        <v>0</v>
+      </c>
+      <c r="F5" s="91">
+        <v>19000</v>
+      </c>
+      <c r="G5" s="91">
+        <f>+F5/12</f>
+        <v>1583.3333333333333</v>
+      </c>
+      <c r="H5" s="91">
+        <f>+G5/160</f>
+        <v>9.8958333333333321</v>
+      </c>
+      <c r="I5" s="91"/>
+      <c r="J5" s="92">
+        <f>+C5*H5</f>
+        <v>9.8958333333333321</v>
+      </c>
+      <c r="K5" s="92">
+        <f>+D5*H5</f>
+        <v>9.8958333333333321</v>
+      </c>
+      <c r="L5" s="91">
+        <f>+E5*H5</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="98" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="90"/>
+      <c r="T5" s="90"/>
+      <c r="U5" s="90"/>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="78">
+        <v>50</v>
+      </c>
+      <c r="B6" s="76" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="78">
+        <v>1</v>
+      </c>
+      <c r="D6" s="93">
+        <v>1</v>
+      </c>
+      <c r="E6" s="93">
+        <v>1</v>
+      </c>
+      <c r="F6" s="91">
+        <v>32000</v>
+      </c>
+      <c r="G6" s="91">
+        <f t="shared" ref="G6:G13" si="0">+F6/12</f>
+        <v>2666.6666666666665</v>
+      </c>
+      <c r="H6" s="91">
+        <f t="shared" ref="H6:H13" si="1">+G6/160</f>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="I6" s="91"/>
+      <c r="J6" s="92">
+        <f t="shared" ref="J6:J13" si="2">+C6*H6</f>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="K6" s="92">
+        <f t="shared" ref="K6:K13" si="3">+D6*H6</f>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="L6" s="92">
+        <f t="shared" ref="L6:L13" si="4">+E6*H6</f>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="M6" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q6" s="94"/>
+      <c r="R6" s="90"/>
+      <c r="S6" s="95"/>
+      <c r="T6" s="95"/>
+      <c r="U6" s="95"/>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="78">
+        <v>40</v>
+      </c>
+      <c r="B7" s="76" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="78">
+        <v>1</v>
+      </c>
+      <c r="D7" s="78">
+        <v>1</v>
+      </c>
+      <c r="E7" s="78">
+        <v>0</v>
+      </c>
+      <c r="F7" s="91">
+        <v>40000</v>
+      </c>
+      <c r="G7" s="91">
+        <f t="shared" si="0"/>
+        <v>3333.3333333333335</v>
+      </c>
+      <c r="H7" s="91">
+        <f t="shared" si="1"/>
+        <v>20.833333333333336</v>
+      </c>
+      <c r="I7" s="91"/>
+      <c r="J7" s="92">
+        <f t="shared" si="2"/>
+        <v>20.833333333333336</v>
+      </c>
+      <c r="K7" s="92">
+        <f t="shared" si="3"/>
+        <v>20.833333333333336</v>
+      </c>
+      <c r="L7" s="91">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q7" s="96"/>
+      <c r="R7" s="90"/>
+      <c r="S7" s="97"/>
+      <c r="T7" s="90"/>
+      <c r="U7" s="90"/>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="78">
+        <v>43</v>
+      </c>
+      <c r="B8" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="78">
+        <v>1</v>
+      </c>
+      <c r="D8" s="78">
+        <v>1</v>
+      </c>
+      <c r="E8" s="78">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="91">
+        <v>43000</v>
+      </c>
+      <c r="G8" s="91">
+        <f t="shared" si="0"/>
+        <v>3583.3333333333335</v>
+      </c>
+      <c r="H8" s="91">
+        <f t="shared" si="1"/>
+        <v>22.395833333333336</v>
+      </c>
+      <c r="I8" s="91"/>
+      <c r="J8" s="92">
+        <f t="shared" si="2"/>
+        <v>22.395833333333336</v>
+      </c>
+      <c r="K8" s="92">
+        <f t="shared" si="3"/>
+        <v>22.395833333333336</v>
+      </c>
+      <c r="L8" s="92">
+        <f t="shared" si="4"/>
+        <v>11.197916666666668</v>
+      </c>
+      <c r="M8" s="98" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" s="96"/>
+      <c r="O8" s="90"/>
+      <c r="Q8" s="90"/>
+      <c r="R8" s="90"/>
+      <c r="S8" s="77"/>
+      <c r="T8" s="90"/>
+      <c r="U8" s="90"/>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="78">
+        <v>40</v>
+      </c>
+      <c r="B9" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="78">
+        <v>0</v>
+      </c>
+      <c r="D9" s="78">
+        <v>1</v>
+      </c>
+      <c r="E9" s="78">
+        <v>0</v>
+      </c>
+      <c r="F9" s="91">
+        <v>40000</v>
+      </c>
+      <c r="G9" s="91">
+        <f t="shared" si="0"/>
+        <v>3333.3333333333335</v>
+      </c>
+      <c r="H9" s="91">
+        <f t="shared" si="1"/>
+        <v>20.833333333333336</v>
+      </c>
+      <c r="I9" s="91"/>
+      <c r="J9" s="91">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="92">
+        <f t="shared" si="3"/>
+        <v>20.833333333333336</v>
+      </c>
+      <c r="L9" s="91">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="77" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q9" s="96"/>
+      <c r="R9" s="90"/>
+      <c r="S9" s="77"/>
+      <c r="T9" s="90"/>
+      <c r="U9" s="90"/>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" s="78">
+        <v>30</v>
+      </c>
+      <c r="B10" s="76" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="78">
+        <v>0</v>
+      </c>
+      <c r="D10" s="78">
+        <v>1</v>
+      </c>
+      <c r="E10" s="78">
+        <v>1</v>
+      </c>
+      <c r="F10" s="91">
+        <v>17000</v>
+      </c>
+      <c r="G10" s="91">
+        <f t="shared" si="0"/>
+        <v>1416.6666666666667</v>
+      </c>
+      <c r="H10" s="91">
+        <f t="shared" si="1"/>
+        <v>8.8541666666666679</v>
+      </c>
+      <c r="I10" s="91"/>
+      <c r="J10" s="91">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="92">
+        <f t="shared" si="3"/>
+        <v>8.8541666666666679</v>
+      </c>
+      <c r="L10" s="92">
+        <f t="shared" si="4"/>
+        <v>8.8541666666666679</v>
+      </c>
+      <c r="M10" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q10" s="96"/>
+      <c r="R10" s="90"/>
+      <c r="S10" s="77"/>
+      <c r="T10" s="90"/>
+      <c r="U10" s="90"/>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="78">
+        <v>28</v>
+      </c>
+      <c r="B11" s="76" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="78">
+        <v>0</v>
+      </c>
+      <c r="D11" s="78">
+        <v>1</v>
+      </c>
+      <c r="E11" s="78">
+        <v>0</v>
+      </c>
+      <c r="F11" s="91">
+        <v>20000</v>
+      </c>
+      <c r="G11" s="91">
+        <f t="shared" si="0"/>
+        <v>1666.6666666666667</v>
+      </c>
+      <c r="H11" s="91">
+        <f t="shared" si="1"/>
+        <v>10.416666666666668</v>
+      </c>
+      <c r="I11" s="91"/>
+      <c r="J11" s="91">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="92">
+        <f t="shared" si="3"/>
+        <v>10.416666666666668</v>
+      </c>
+      <c r="L11" s="91">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="U11" s="90"/>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="78">
+        <v>37</v>
+      </c>
+      <c r="B12" s="76" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="78">
+        <v>0</v>
+      </c>
+      <c r="D12" s="78">
+        <v>1</v>
+      </c>
+      <c r="E12" s="78">
+        <v>1</v>
+      </c>
+      <c r="F12" s="91">
+        <v>35000</v>
+      </c>
+      <c r="G12" s="91">
+        <f t="shared" si="0"/>
+        <v>2916.6666666666665</v>
+      </c>
+      <c r="H12" s="91">
+        <f t="shared" si="1"/>
+        <v>18.229166666666664</v>
+      </c>
+      <c r="I12" s="91"/>
+      <c r="J12" s="91">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="92">
+        <f t="shared" si="3"/>
+        <v>18.229166666666664</v>
+      </c>
+      <c r="L12" s="92">
+        <f t="shared" si="4"/>
+        <v>18.229166666666664</v>
+      </c>
+      <c r="M12" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" s="96"/>
+      <c r="O12" s="90"/>
+      <c r="Q12" s="96"/>
+      <c r="R12" s="90"/>
+      <c r="S12" s="77"/>
+      <c r="T12" s="90"/>
+      <c r="U12" s="90"/>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="B13" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="78">
+        <v>0</v>
+      </c>
+      <c r="D13" s="78">
+        <v>0</v>
+      </c>
+      <c r="E13" s="78">
+        <v>1</v>
+      </c>
+      <c r="F13" s="91">
+        <v>14000</v>
+      </c>
+      <c r="G13" s="91">
+        <f t="shared" si="0"/>
+        <v>1166.6666666666667</v>
+      </c>
+      <c r="H13" s="91">
+        <f t="shared" si="1"/>
+        <v>7.291666666666667</v>
+      </c>
+      <c r="I13" s="91"/>
+      <c r="J13" s="91">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="91">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="92">
+        <f t="shared" si="4"/>
+        <v>7.291666666666667</v>
+      </c>
+      <c r="M13" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="N13" s="76"/>
+      <c r="T13" s="90"/>
+      <c r="U13" s="90"/>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="91"/>
+      <c r="Q14" s="90"/>
+      <c r="R14" s="90"/>
+      <c r="S14" s="90"/>
+      <c r="T14" s="90"/>
+      <c r="U14" s="90"/>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="B15" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="78">
+        <f>+SUM(C5:C13)</f>
+        <v>4</v>
+      </c>
+      <c r="D15" s="78">
+        <f t="shared" ref="D15:L15" si="5">+SUM(D5:D13)</f>
+        <v>8</v>
+      </c>
+      <c r="E15" s="78">
+        <f t="shared" si="5"/>
+        <v>4.5</v>
+      </c>
+      <c r="F15" s="91">
+        <f t="shared" si="5"/>
+        <v>260000</v>
+      </c>
+      <c r="G15" s="91">
+        <f t="shared" si="5"/>
+        <v>21666.666666666672</v>
+      </c>
+      <c r="H15" s="91">
+        <f t="shared" si="5"/>
+        <v>135.41666666666666</v>
+      </c>
+      <c r="I15" s="91">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="91">
+        <f t="shared" si="5"/>
+        <v>69.791666666666657</v>
+      </c>
+      <c r="K15" s="91">
+        <f t="shared" si="5"/>
+        <v>128.125</v>
+      </c>
+      <c r="L15" s="91">
+        <f t="shared" si="5"/>
+        <v>62.239583333333329</v>
+      </c>
+      <c r="Q15" s="90"/>
+      <c r="R15" s="90"/>
+      <c r="S15" s="90"/>
+      <c r="T15" s="90"/>
+      <c r="U15" s="90"/>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="F16" s="91"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="91"/>
+      <c r="L16" s="91"/>
+      <c r="Q16" s="90"/>
+      <c r="R16" s="90"/>
+      <c r="S16" s="90"/>
+      <c r="T16" s="90"/>
+      <c r="U16" s="90"/>
+    </row>
+    <row r="17" spans="2:21">
+      <c r="Q17" s="90"/>
+      <c r="R17" s="90"/>
+      <c r="S17" s="90"/>
+      <c r="T17" s="90"/>
+      <c r="U17" s="90"/>
+    </row>
+    <row r="18" spans="2:21">
+      <c r="Q18" s="90"/>
+      <c r="R18" s="90"/>
+      <c r="S18" s="90"/>
+      <c r="T18" s="90"/>
+      <c r="U18" s="90"/>
+    </row>
+    <row r="19" spans="2:21">
+      <c r="Q19" s="90"/>
+      <c r="R19" s="90"/>
+      <c r="S19" s="90"/>
+      <c r="T19" s="90"/>
+      <c r="U19" s="90"/>
+    </row>
+    <row r="20" spans="2:21">
+      <c r="D20" s="78" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21">
+      <c r="B21" s="78" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21">
+      <c r="B22" s="78">
+        <f>40*4</f>
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="S6:U6"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C5:E13">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{3225EAC1-C014-4A03-8F5C-74FC56A041CA}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{D16BE08C-F4FB-4D1F-8B56-DEC3ABDFC046}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{46364113-786E-46D6-9035-322E1BDA1A2A}"/>
+    <hyperlink ref="B8" r:id="rId4" xr:uid="{EE398E44-2973-4B8B-9051-C3D129A10E1D}"/>
+    <hyperlink ref="B10" r:id="rId5" xr:uid="{BCA593AE-9A7C-4726-9969-4D381A6C3832}"/>
+    <hyperlink ref="B12" r:id="rId6" xr:uid="{B6F7CD3F-3D4B-4135-8292-A65627C64796}"/>
+    <hyperlink ref="B13" r:id="rId7" xr:uid="{0F3964EE-FE28-4242-B3E8-59BBDCA168E3}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{1D7255E1-0BDE-4080-94BA-A740889EE8AD}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{0BD2A475-AB4B-4BFA-AA90-17979850FFB5}"/>
+    <hyperlink ref="M12" r:id="rId10" display="https://www.linkedin.com/in/joseramonmanesblasco?lipi=urn%3Ali%3Apage%3Ad_flagship3_search_srp_all%3BscbunkyESOq%2B73wWM6jhrg%3D%3D&amp;licu=urn%3Ali%3Acontrol%3Ad_flagship3_search_srp_all-entity_result&amp;lici=z88%2F%2BjE%2FRdKvOSqt%2BaXMOQ%3D%3D" xr:uid="{26646D99-E359-4442-8CA0-056943A352AD}"/>
+    <hyperlink ref="M6" r:id="rId11" xr:uid="{8F7B67FF-D558-644C-8E1B-1CD729142F65}"/>
+    <hyperlink ref="M7" r:id="rId12" xr:uid="{31104BFF-CD28-BE46-9E7A-0DCC27B5E77A}"/>
+    <hyperlink ref="M9" r:id="rId13" xr:uid="{9D4FBC06-F2ED-F547-84BF-5BE83B21AD72}"/>
+    <hyperlink ref="M10" r:id="rId14" xr:uid="{C957442C-AC7E-BB4C-9D4D-2061890C2034}"/>
+    <hyperlink ref="M11" r:id="rId15" xr:uid="{862FEB05-0E54-B441-BA65-42E4EDC878B2}"/>
+    <hyperlink ref="M13" r:id="rId16" xr:uid="{739411EE-E7D9-5B48-9701-4CB4192454D7}"/>
+    <hyperlink ref="M8" r:id="rId17" xr:uid="{86233213-6686-B141-B436-E55BD73756E3}"/>
+    <hyperlink ref="M5" r:id="rId18" xr:uid="{475B4715-2B65-C949-AFBC-E74DC0EC466C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388A549D-1207-4FC5-8626-83E4C16C7DDC}">
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="11"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="30" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="31" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" style="30" customWidth="1"/>
-    <col min="5" max="5" width="5.5" style="30" customWidth="1"/>
-    <col min="6" max="6" width="6.83203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.83203125" style="30" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="30"/>
-    <col min="11" max="16384" width="11.5" style="31"/>
+    <col min="1" max="1" width="26.1640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="29" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="30" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="29" customWidth="1"/>
+    <col min="5" max="5" width="5.5" style="29" customWidth="1"/>
+    <col min="6" max="6" width="6.83203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.83203125" style="29" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="29"/>
+    <col min="11" max="16384" width="11.5" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="13">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="13">
@@ -1277,7 +2085,7 @@
         <v>9</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="8" t="s">
@@ -1287,7 +2095,7 @@
         <v>9</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="13">
@@ -1308,8 +2116,8 @@
         <f>+D5/160</f>
         <v>12.542708333333334</v>
       </c>
-      <c r="F5" s="17" t="s">
-        <v>16</v>
+      <c r="F5" s="17">
+        <v>4.6300000000000001E-2</v>
       </c>
       <c r="G5" s="3">
         <v>25197</v>
@@ -1341,8 +2149,8 @@
         <f t="shared" ref="E6:E11" si="1">+D6/160</f>
         <v>12.9140625</v>
       </c>
-      <c r="F6" s="18" t="s">
-        <v>17</v>
+      <c r="F6" s="17">
+        <v>1.4499999999999999E-3</v>
       </c>
       <c r="G6" s="3">
         <v>24831</v>
@@ -1374,8 +2182,8 @@
         <f t="shared" si="1"/>
         <v>10.471354166666668</v>
       </c>
-      <c r="F7" s="17" t="s">
-        <v>18</v>
+      <c r="F7" s="17">
+        <v>0.60609999999999997</v>
       </c>
       <c r="G7" s="3">
         <v>32291</v>
@@ -1407,8 +2215,8 @@
         <f t="shared" si="1"/>
         <v>21.875</v>
       </c>
-      <c r="F8" s="17" t="s">
-        <v>19</v>
+      <c r="F8" s="17">
+        <v>0.1898</v>
       </c>
       <c r="G8" s="3">
         <v>49974</v>
@@ -1440,8 +2248,8 @@
         <f t="shared" si="1"/>
         <v>22.304166666666667</v>
       </c>
-      <c r="F9" s="17" t="s">
-        <v>20</v>
+      <c r="F9" s="17">
+        <v>0.10489999999999999</v>
       </c>
       <c r="G9" s="3">
         <v>47317</v>
@@ -1457,7 +2265,7 @@
     </row>
     <row r="10" spans="1:9" ht="13">
       <c r="A10" s="1" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>11</v>
@@ -1473,8 +2281,8 @@
         <f t="shared" si="1"/>
         <v>11.237500000000001</v>
       </c>
-      <c r="F10" s="17" t="s">
-        <v>21</v>
+      <c r="F10" s="17">
+        <v>0.29980000000000001</v>
       </c>
       <c r="G10" s="3">
         <v>28045</v>
@@ -1506,8 +2314,8 @@
         <f t="shared" si="1"/>
         <v>18.229166666666664</v>
       </c>
-      <c r="F11" s="17" t="s">
-        <v>22</v>
+      <c r="F11" s="17">
+        <v>1.345E-2</v>
       </c>
       <c r="G11" s="5">
         <v>35471</v>
@@ -1531,9 +2339,9 @@
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
     </row>
-    <row r="13" spans="1:9" s="30" customFormat="1" ht="13">
+    <row r="13" spans="1:9" s="29" customFormat="1" ht="13">
       <c r="B13" s="10" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C13" s="9">
         <f>+SUM(C5:C11)</f>
@@ -1561,7 +2369,7 @@
         <v>126.628125</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="30" customFormat="1" ht="13">
+    <row r="14" spans="1:9" s="29" customFormat="1" ht="13">
       <c r="B14" s="10" t="s">
         <v>6</v>
       </c>
@@ -1612,119 +2420,119 @@
       <c r="I16" s="12"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="33"/>
+      <c r="A18" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="32"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="B19" s="33"/>
+      <c r="B19" s="32"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="51"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
     </row>
     <row r="22" spans="1:7" ht="13">
-      <c r="A22" s="56"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="48"/>
+      <c r="A22" s="55"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="47"/>
     </row>
     <row r="23" spans="1:7" ht="13">
-      <c r="A23" s="59"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="48"/>
+      <c r="A23" s="58"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="47"/>
     </row>
     <row r="24" spans="1:7" ht="13">
-      <c r="A24" s="59"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="48"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="47"/>
     </row>
     <row r="25" spans="1:7" ht="13">
-      <c r="A25" s="59"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="48"/>
+      <c r="A25" s="58"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="47"/>
     </row>
     <row r="26" spans="1:7" ht="13">
-      <c r="A26" s="59"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="48"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="47"/>
     </row>
     <row r="27" spans="1:7" ht="13">
-      <c r="A27" s="59"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="48"/>
+      <c r="A27" s="58"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="47"/>
     </row>
     <row r="28" spans="1:7" ht="13">
-      <c r="A28" s="59"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="48"/>
+      <c r="A28" s="58"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="47"/>
     </row>
     <row r="29" spans="1:7" ht="13">
-      <c r="A29" s="59"/>
-      <c r="B29" s="53"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="48"/>
+      <c r="A29" s="58"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="47"/>
     </row>
     <row r="30" spans="1:7" ht="13">
-      <c r="A30" s="56"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="48"/>
+      <c r="A30" s="55"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="47"/>
     </row>
     <row r="31" spans="1:7" ht="14">
-      <c r="A31" s="61"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="48"/>
+      <c r="A31" s="60"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="47"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="48"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="48"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1752,241 +2560,138 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40CC1CBE-46BA-4B47-995D-A2FD4AAB6A32}">
-  <dimension ref="B2:D12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="2" spans="2:4">
-      <c r="B2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4">
-      <c r="B3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A9F840-D566-4275-BA1B-F66A2FCEFED1}">
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="C16" sqref="A1:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="11"/>
   <cols>
-    <col min="1" max="1" width="26.83203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.1640625" style="24" customWidth="1"/>
-    <col min="3" max="3" width="18.5" style="24" customWidth="1"/>
-    <col min="4" max="5" width="3" style="24" customWidth="1"/>
-    <col min="6" max="6" width="4.33203125" style="24" customWidth="1"/>
-    <col min="7" max="7" width="11.5" style="24"/>
-    <col min="8" max="9" width="3" style="24" customWidth="1"/>
-    <col min="10" max="16384" width="11.5" style="24"/>
+    <col min="1" max="1" width="26.83203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.1640625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="23" customWidth="1"/>
+    <col min="4" max="5" width="3" style="23" customWidth="1"/>
+    <col min="6" max="6" width="4.33203125" style="23" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="23"/>
+    <col min="8" max="9" width="3" style="23" customWidth="1"/>
+    <col min="10" max="16384" width="11.5" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="13">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="24"/>
+    </row>
+    <row r="2" spans="1:9" ht="13">
+      <c r="E2" s="19"/>
+      <c r="F2" s="24"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+    </row>
+    <row r="3" spans="1:9" ht="15">
+      <c r="A3" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+    </row>
+    <row r="4" spans="1:9" ht="13">
+      <c r="A4" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="13">
+      <c r="A5" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="24" t="s">
+    </row>
+    <row r="6" spans="1:9" ht="13">
+      <c r="A6" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="13">
+      <c r="A7" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="25"/>
-    </row>
-    <row r="2" spans="1:9" ht="13">
-      <c r="E2" s="20"/>
-      <c r="F2" s="25"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-    </row>
-    <row r="3" spans="1:9" ht="15">
-      <c r="A3" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="75" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="75" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-    </row>
-    <row r="4" spans="1:9" ht="13">
-      <c r="A4" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="27" t="s">
+      <c r="G7" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="13">
+      <c r="A8" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="13">
-      <c r="A5" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="26" t="s">
+      <c r="G8" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="26" t="s">
+    </row>
+    <row r="9" spans="1:9" ht="13">
+      <c r="A9" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="25" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="13">
-      <c r="A6" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="26" t="s">
+      <c r="G9" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="26" t="s">
+    </row>
+    <row r="10" spans="1:9" ht="13">
+      <c r="A10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="25" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="13">
-      <c r="A7" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="26" t="s">
+      <c r="G10" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="26" t="s">
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="23" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="13">
-      <c r="A8" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="13">
-      <c r="A9" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="13">
-      <c r="A10" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="24" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2024,204 +2729,204 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:8" ht="68">
-      <c r="A1" s="64"/>
-      <c r="B1" s="64" t="s">
+      <c r="A1" s="63"/>
+      <c r="B1" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="64" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" s="65" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" s="65" t="s">
-        <v>81</v>
-      </c>
-      <c r="H1" s="65" t="s">
-        <v>80</v>
+      <c r="C1" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="64" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="34">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="67">
+      <c r="B2" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="66">
         <v>28000</v>
       </c>
-      <c r="D2" s="68">
+      <c r="D2" s="67">
         <v>2333.33</v>
       </c>
-      <c r="E2" s="68">
+      <c r="E2" s="67">
         <v>14.583299999999999</v>
       </c>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
     </row>
     <row r="3" spans="1:8" ht="51">
-      <c r="A3" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="66" t="s">
+      <c r="A3" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="67">
+      <c r="C3" s="66">
         <v>24795</v>
       </c>
-      <c r="D3" s="68">
+      <c r="D3" s="67">
         <v>2066.25</v>
       </c>
-      <c r="E3" s="68">
+      <c r="E3" s="67">
         <v>12.914099999999999</v>
       </c>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
     </row>
     <row r="4" spans="1:8" ht="34">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="67">
+      <c r="C4" s="66">
         <v>20066</v>
       </c>
-      <c r="D4" s="68">
+      <c r="D4" s="67">
         <v>1672.17</v>
       </c>
-      <c r="E4" s="68">
+      <c r="E4" s="67">
         <v>10.451000000000001</v>
       </c>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
     </row>
     <row r="5" spans="1:8" ht="51">
-      <c r="A5" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="66" t="s">
+      <c r="A5" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="67">
+      <c r="C5" s="66">
         <v>23000</v>
       </c>
-      <c r="D5" s="68">
+      <c r="D5" s="67">
         <v>1916.67</v>
       </c>
-      <c r="E5" s="68">
+      <c r="E5" s="67">
         <v>11.979200000000001</v>
       </c>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
     </row>
     <row r="6" spans="1:8" ht="34">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="67">
+      <c r="B6" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="66">
         <v>43000</v>
       </c>
-      <c r="D6" s="68">
+      <c r="D6" s="67">
         <v>3583.33</v>
       </c>
-      <c r="E6" s="68">
+      <c r="E6" s="67">
         <v>22.395800000000001</v>
       </c>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
     </row>
     <row r="7" spans="1:8" ht="34">
-      <c r="A7" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="66" t="s">
+      <c r="A7" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="67">
+      <c r="C7" s="66">
         <v>21558</v>
       </c>
-      <c r="D7" s="68">
+      <c r="D7" s="67">
         <v>1796.5</v>
       </c>
-      <c r="E7" s="68">
+      <c r="E7" s="67">
         <v>11.2281</v>
       </c>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
     </row>
     <row r="8" spans="1:8" ht="17">
-      <c r="A8" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="66" t="s">
+      <c r="A8" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="67">
+      <c r="C8" s="66">
         <v>35058</v>
       </c>
-      <c r="D8" s="68">
+      <c r="D8" s="67">
         <v>2921.5</v>
       </c>
-      <c r="E8" s="68">
+      <c r="E8" s="67">
         <v>18.259399999999999</v>
       </c>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
     </row>
     <row r="9" spans="1:8" ht="16">
-      <c r="A9" s="76" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="70">
+      <c r="A9" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="75"/>
+      <c r="C9" s="69">
         <v>195477</v>
       </c>
-      <c r="D9" s="70">
+      <c r="D9" s="69">
         <v>16290</v>
       </c>
-      <c r="E9" s="71">
+      <c r="E9" s="70">
         <v>102</v>
       </c>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
     </row>
     <row r="10" spans="1:8" ht="16">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="76"/>
-      <c r="C10" s="70">
+      <c r="B10" s="75"/>
+      <c r="C10" s="69">
         <v>71000</v>
       </c>
-      <c r="D10" s="70">
+      <c r="D10" s="69">
         <v>5917</v>
       </c>
-      <c r="E10" s="71">
+      <c r="E10" s="70">
         <v>37</v>
       </c>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2245,7 +2950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF675A3F-3ADE-DE45-9EDD-EDB58131558F}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -2260,511 +2965,511 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16">
-      <c r="A1" s="34"/>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="35"/>
+      <c r="A1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="34"/>
     </row>
     <row r="2" spans="1:7" ht="16">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="34"/>
     </row>
     <row r="3" spans="1:7" ht="17" thickBot="1">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="35"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:7" ht="17" thickBot="1">
-      <c r="A4" s="34"/>
-      <c r="B4" s="36" t="s">
+      <c r="A4" s="33"/>
+      <c r="B4" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16">
+      <c r="A5" s="33"/>
+      <c r="B5" s="37">
+        <v>16</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16">
+      <c r="A6" s="33"/>
+      <c r="B6" s="37">
+        <v>17</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16">
+      <c r="A7" s="33"/>
+      <c r="B7" s="37">
+        <v>18</v>
+      </c>
+      <c r="C7" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="D7" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="E7" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="F7" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="G7" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="37" t="s">
+    </row>
+    <row r="8" spans="1:7" ht="16">
+      <c r="A8" s="33"/>
+      <c r="B8" s="37">
+        <v>19</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="38" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="16">
-      <c r="A5" s="34"/>
-      <c r="B5" s="38">
-        <v>16</v>
-      </c>
-      <c r="C5" s="35" t="s">
+      <c r="E8" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="40" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="16">
-      <c r="A6" s="34"/>
-      <c r="B6" s="38">
-        <v>17</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="40" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16">
-      <c r="A7" s="34"/>
-      <c r="B7" s="38">
-        <v>18</v>
-      </c>
-      <c r="C7" s="35" t="s">
+      <c r="F8" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="G8" s="39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16">
+      <c r="A9" s="33"/>
+      <c r="B9" s="37">
+        <v>20</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E9" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16">
+      <c r="A10" s="33"/>
+      <c r="B10" s="37">
+        <v>21</v>
+      </c>
+      <c r="C10" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="D10" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="E10" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16">
+      <c r="A11" s="33"/>
+      <c r="B11" s="37">
+        <v>22</v>
+      </c>
+      <c r="C11" s="34" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="16">
-      <c r="A8" s="34"/>
-      <c r="B8" s="38">
-        <v>19</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="39" t="s">
+      <c r="D11" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E11" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16">
+      <c r="A12" s="33"/>
+      <c r="B12" s="37">
+        <v>23</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16">
+      <c r="A13" s="33"/>
+      <c r="B13" s="37">
+        <v>24</v>
+      </c>
+      <c r="C13" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="D13" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16">
+      <c r="A14" s="33"/>
+      <c r="B14" s="37">
+        <v>25</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16">
+      <c r="A15" s="33"/>
+      <c r="B15" s="37">
+        <v>26</v>
+      </c>
+      <c r="C15" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="D15" s="38" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="16">
-      <c r="A9" s="34"/>
-      <c r="B9" s="38">
-        <v>20</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="39" t="s">
+      <c r="E15" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16">
+      <c r="A16" s="33"/>
+      <c r="B16" s="37">
+        <v>27</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16">
+      <c r="A17" s="33"/>
+      <c r="B17" s="37">
+        <v>28</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16">
+      <c r="A18" s="33"/>
+      <c r="B18" s="37">
+        <v>29</v>
+      </c>
+      <c r="C18" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="40" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16">
-      <c r="A10" s="34"/>
-      <c r="B10" s="38">
-        <v>21</v>
-      </c>
-      <c r="C10" s="35" t="s">
+      <c r="D18" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16">
+      <c r="A19" s="33"/>
+      <c r="B19" s="37">
+        <v>30</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="16">
+      <c r="A20" s="33"/>
+      <c r="B20" s="37">
+        <v>31</v>
+      </c>
+      <c r="C20" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D20" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16">
+      <c r="A21" s="33"/>
+      <c r="B21" s="37">
+        <v>1</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="16">
+      <c r="A22" s="33"/>
+      <c r="B22" s="37">
+        <v>2</v>
+      </c>
+      <c r="C22" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="D22" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="E22" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="F22" s="39" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="16">
-      <c r="A11" s="34"/>
-      <c r="B11" s="38">
-        <v>22</v>
-      </c>
-      <c r="C11" s="35" t="s">
+      <c r="G22" s="39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="16">
+      <c r="A23" s="34"/>
+      <c r="B23" s="37">
+        <v>3</v>
+      </c>
+      <c r="C23" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D23" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="17" thickBot="1">
+      <c r="A24" s="34"/>
+      <c r="B24" s="37">
+        <v>4</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" s="39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="17" thickBot="1">
+      <c r="A25" s="34"/>
+      <c r="B25" s="35">
+        <v>5</v>
+      </c>
+      <c r="C25" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="D25" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="40" t="s">
+      <c r="E25" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="G11" s="40" t="s">
+      <c r="F25" s="45" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="16">
-      <c r="A12" s="34"/>
-      <c r="B12" s="38">
-        <v>23</v>
-      </c>
-      <c r="C12" s="35" t="s">
+      <c r="G25" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="40" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="16">
-      <c r="A13" s="34"/>
-      <c r="B13" s="38">
-        <v>24</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="40" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="16">
-      <c r="A14" s="34"/>
-      <c r="B14" s="38">
-        <v>25</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="G14" s="40" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="16">
-      <c r="A15" s="34"/>
-      <c r="B15" s="38">
-        <v>26</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="G15" s="40" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="16">
-      <c r="A16" s="34"/>
-      <c r="B16" s="38">
-        <v>27</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="G16" s="40" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="16">
-      <c r="A17" s="34"/>
-      <c r="B17" s="38">
-        <v>28</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="G17" s="40" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="16">
-      <c r="A18" s="34"/>
-      <c r="B18" s="38">
-        <v>29</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="G18" s="40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="16">
-      <c r="A19" s="34"/>
-      <c r="B19" s="38">
-        <v>30</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="G19" s="40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="16">
-      <c r="A20" s="34"/>
-      <c r="B20" s="38">
-        <v>31</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="G20" s="40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="16">
-      <c r="A21" s="34"/>
-      <c r="B21" s="38">
-        <v>1</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="G21" s="40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="16">
-      <c r="A22" s="34"/>
-      <c r="B22" s="38">
-        <v>2</v>
-      </c>
-      <c r="C22" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="G22" s="40" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="16">
-      <c r="A23" s="35"/>
-      <c r="B23" s="38">
-        <v>3</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="F23" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="G23" s="40" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="17" thickBot="1">
-      <c r="A24" s="35"/>
-      <c r="B24" s="38">
-        <v>4</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="E24" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="F24" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="G24" s="40" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="17" thickBot="1">
-      <c r="A25" s="35"/>
-      <c r="B25" s="36">
-        <v>5</v>
-      </c>
-      <c r="C25" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="F25" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="G25" s="47" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="26" spans="1:7" ht="16">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
     </row>
     <row r="27" spans="1:7" ht="16">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
